--- a/Project Plans/Project Schedule.xlsx
+++ b/Project Plans/Project Schedule.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEDD704F-F631-7642-A8F4-8BF96A32DC49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4036BC2-D1EB-3543-8869-835A8511B141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36260" yWindow="4620" windowWidth="23260" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36040" yWindow="3900" windowWidth="23260" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Timeline" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Activity</t>
   </si>
@@ -101,9 +101,6 @@
     <t>Zoom meeting on 5/19 ? (Jupyter + SQL)</t>
   </si>
   <si>
-    <t>Presentaion</t>
-  </si>
-  <si>
     <t>Vizulaization / HTML / JS</t>
   </si>
   <si>
@@ -111,6 +108,15 @@
   </si>
   <si>
     <t>Powerpoint with link to website. (Zoom Meeting to Finalize Powerpoint/webstie)</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>SQL / Mongo DB</t>
+  </si>
+  <si>
+    <t>Add tables to SQL and create a server on mongo DB. Take Screenshots and store</t>
   </si>
 </sst>
 </file>
@@ -304,7 +310,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -343,6 +349,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1793,58 +1802,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>#N/A</c:v>
+                  <c:v>8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>#N/A</c:v>
+                  <c:v>8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>#N/A</c:v>
+                  <c:v>8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>#N/A</c:v>
+                  <c:v>8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>#N/A</c:v>
+                  <c:v>8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>#N/A</c:v>
+                  <c:v>8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>#N/A</c:v>
+                  <c:v>8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>#N/A</c:v>
@@ -1901,7 +1910,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>PROJECT START</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2000,7 +2009,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>#N/A</c:v>
+                  <c:v>8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>#N/A</c:v>
@@ -2202,43 +2211,43 @@
                   <c:v>7.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>#N/A</c:v>
@@ -2295,7 +2304,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PROJECT START</c:v>
+                  <c:v>CLEAN &amp; EXTRACT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2400,7 +2409,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>7.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -2439,7 +2448,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>#N/A</c:v>
@@ -2516,37 +2525,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>#N/A</c:v>
@@ -2624,7 +2633,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CLEAN &amp; EXTRACT</c:v>
+                  <c:v>VIZULAIZATION / HTML / JS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2701,25 +2710,25 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>6.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>#N/A</c:v>
@@ -2836,31 +2845,31 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>#N/A</c:v>
@@ -2932,7 +2941,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VIZULAIZATION / HTML / JS</c:v>
+                  <c:v>FINALIZE HTML / CSS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3027,13 +3036,13 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>5.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>#N/A</c:v>
@@ -3162,10 +3171,10 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>4.3000000000000007</c:v>
@@ -3240,7 +3249,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FINALIZE HTML / CSS</c:v>
+                  <c:v>SQL / MONGO DB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3548,7 +3557,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PRESENTAION</c:v>
+                  <c:v>PRESENTATION</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4528,7 +4537,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{76549BBE-7F9D-0047-8EEF-0324DF2C8337}</c15:txfldGUID>
+                      <c15:txfldGUID>{45F570C5-1344-0A4C-A9E2-10B9DD0D13A0}</c15:txfldGUID>
                       <c15:f>calcs!$E$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4569,7 +4578,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{F4F373C6-A8E0-6F46-9A64-3BDA24702A17}</c15:txfldGUID>
+                      <c15:txfldGUID>{000411EC-0153-DC45-B9A3-AE9962099800}</c15:txfldGUID>
                       <c15:f>calcs!$F$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4610,7 +4619,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4BD0C491-F3D6-C54D-9BD2-6327828B3DC1}</c15:txfldGUID>
+                      <c15:txfldGUID>{2258566F-6FAC-914E-90D6-C70E21664139}</c15:txfldGUID>
                       <c15:f>calcs!$G$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4651,7 +4660,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{0370951C-9A65-8C4A-962F-520AD487B299}</c15:txfldGUID>
+                      <c15:txfldGUID>{2796E1B2-9F9D-AA4C-AD35-633A71953E01}</c15:txfldGUID>
                       <c15:f>calcs!$H$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4692,7 +4701,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C7A7DF00-FD7E-F740-A643-5814CCB9B5E8}</c15:txfldGUID>
+                      <c15:txfldGUID>{CC5B5E46-969D-6A4B-B180-3FDAFAA2F7D3}</c15:txfldGUID>
                       <c15:f>calcs!$I$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4733,7 +4742,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{52A0BBEE-7C51-D045-A47C-399C93C17649}</c15:txfldGUID>
+                      <c15:txfldGUID>{BC6D458D-BAD9-354F-B5C0-B06D49596F11}</c15:txfldGUID>
                       <c15:f>calcs!$J$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4774,7 +4783,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A3ACD148-7455-CA4D-BC3A-9CBF8ABE4857}</c15:txfldGUID>
+                      <c15:txfldGUID>{979854C7-7980-964C-B8AB-D97467906D5F}</c15:txfldGUID>
                       <c15:f>calcs!$K$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4815,7 +4824,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{6B0CB818-771E-3C47-979D-1743D4CA5FF7}</c15:txfldGUID>
+                      <c15:txfldGUID>{84D2D037-8B48-624C-8215-A7D4485B3DEB}</c15:txfldGUID>
                       <c15:f>calcs!$L$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4856,7 +4865,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{0008C18A-205F-3545-9F95-094270E6C318}</c15:txfldGUID>
+                      <c15:txfldGUID>{7FF4B0E7-65ED-EC46-895A-8DC295ACC3E5}</c15:txfldGUID>
                       <c15:f>calcs!$M$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4897,7 +4906,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5DEE7DA4-4A50-F44B-86D0-E5A5059CE19F}</c15:txfldGUID>
+                      <c15:txfldGUID>{8F7D73B5-22E2-D74E-9BB9-DFDD274BE98B}</c15:txfldGUID>
                       <c15:f>calcs!$N$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4938,7 +4947,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C877E657-5E87-2847-94EE-CCB977D3D41B}</c15:txfldGUID>
+                      <c15:txfldGUID>{992F07E8-005C-2A49-BE9D-E61FCE571509}</c15:txfldGUID>
                       <c15:f>calcs!$O$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4979,7 +4988,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B90309A0-3020-794D-A0E1-3316BD070782}</c15:txfldGUID>
+                      <c15:txfldGUID>{EC32EC9D-453C-BD42-A6AA-266101600F14}</c15:txfldGUID>
                       <c15:f>calcs!$P$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5020,7 +5029,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{F92A9D40-B4A5-0A4E-8F18-59D6F60A828C}</c15:txfldGUID>
+                      <c15:txfldGUID>{91387DC2-2306-B74E-AC62-C910A4100597}</c15:txfldGUID>
                       <c15:f>calcs!$Q$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5061,7 +5070,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5F841034-CE24-7340-B677-6DBA1285B0B7}</c15:txfldGUID>
+                      <c15:txfldGUID>{599BAAA9-8A79-014D-B0E9-2DF83E5F7192}</c15:txfldGUID>
                       <c15:f>calcs!$R$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5102,7 +5111,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{538D66B7-1B10-054F-9A5F-8406405412E9}</c15:txfldGUID>
+                      <c15:txfldGUID>{EF6FAE54-59C2-2344-8721-0CDF35D2ABCF}</c15:txfldGUID>
                       <c15:f>calcs!$S$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5143,7 +5152,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E21475FB-5821-7F4E-A535-6BDA6D547C27}</c15:txfldGUID>
+                      <c15:txfldGUID>{19C8F9E9-61E4-884F-ADD5-BA7A0090504F}</c15:txfldGUID>
                       <c15:f>calcs!$T$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5184,7 +5193,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E64B0418-4344-BA4F-922D-911680581D60}</c15:txfldGUID>
+                      <c15:txfldGUID>{F6010815-6512-4D4C-812B-50862326DFA8}</c15:txfldGUID>
                       <c15:f>calcs!$U$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5225,7 +5234,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B6A37C9C-C387-5C41-B1AE-B41639ED23FD}</c15:txfldGUID>
+                      <c15:txfldGUID>{C38285A8-7F60-9C48-A7D6-B09A0BC77624}</c15:txfldGUID>
                       <c15:f>calcs!$V$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5266,7 +5275,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A33552BC-F56B-E749-A604-3030B5B93538}</c15:txfldGUID>
+                      <c15:txfldGUID>{80560478-B97C-F842-9237-F60022B7B2F9}</c15:txfldGUID>
                       <c15:f>calcs!$W$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5307,7 +5316,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{3FD78A37-BA6A-744E-AE1C-693B694E6C37}</c15:txfldGUID>
+                      <c15:txfldGUID>{B9D8FBCD-B359-0D48-9803-0042EC67D6A0}</c15:txfldGUID>
                       <c15:f>calcs!$X$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5348,7 +5357,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E40017FF-2266-C442-A0CE-88D3F68D6F17}</c15:txfldGUID>
+                      <c15:txfldGUID>{277A2750-D69A-F24B-B922-F26C18A161AB}</c15:txfldGUID>
                       <c15:f>calcs!$Y$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5389,7 +5398,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{DC64E4FC-498C-FB4E-8D98-232D2D808EAD}</c15:txfldGUID>
+                      <c15:txfldGUID>{BA48BF20-292A-A244-A024-366549EBEB60}</c15:txfldGUID>
                       <c15:f>calcs!$Z$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5430,7 +5439,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{03BECE0F-6E28-7F45-847E-55A935B2C9F1}</c15:txfldGUID>
+                      <c15:txfldGUID>{7979204C-B483-F44C-A88F-06F07A6C594B}</c15:txfldGUID>
                       <c15:f>calcs!$AA$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5471,7 +5480,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{1F664B8E-A1D0-314F-8368-06399312A39D}</c15:txfldGUID>
+                      <c15:txfldGUID>{02BA25DD-F23E-B744-89D3-0828AD44D102}</c15:txfldGUID>
                       <c15:f>calcs!$AB$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5512,7 +5521,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{F3E4AA49-B896-8845-8E08-96C3B2D6299D}</c15:txfldGUID>
+                      <c15:txfldGUID>{4F3886C3-4D0A-0B4F-A2F7-D4611E2F9DE9}</c15:txfldGUID>
                       <c15:f>calcs!$AC$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5553,7 +5562,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D30EC128-5102-C449-B097-34FE8451F2DE}</c15:txfldGUID>
+                      <c15:txfldGUID>{1410E862-83B3-E24A-B57C-A60F9B416E39}</c15:txfldGUID>
                       <c15:f>calcs!$AD$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5594,7 +5603,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{39AB4834-414C-0046-87BC-E59EE4E91288}</c15:txfldGUID>
+                      <c15:txfldGUID>{785A6E9C-C5CA-A041-A4A0-BE11288EED4E}</c15:txfldGUID>
                       <c15:f>calcs!$AE$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5635,7 +5644,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{02028220-615F-F34C-A4DE-84A0F793A8B4}</c15:txfldGUID>
+                      <c15:txfldGUID>{DCB686D5-C89E-9346-8619-92CB550F9B92}</c15:txfldGUID>
                       <c15:f>calcs!$AF$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5676,7 +5685,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D07A7EF9-8C68-2E45-A2F2-5A5E26FA8DE9}</c15:txfldGUID>
+                      <c15:txfldGUID>{11ADE2C5-4614-4446-9ABF-EB06A014823F}</c15:txfldGUID>
                       <c15:f>calcs!$AG$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5717,7 +5726,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{FAE0BFC8-856E-0D43-AD65-017579EC61F5}</c15:txfldGUID>
+                      <c15:txfldGUID>{7A7C2B40-E3D4-144F-A6D3-73D43193FB1B}</c15:txfldGUID>
                       <c15:f>calcs!$AH$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5910,7 +5919,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B2D9BF71-DC08-8A4F-B5C7-D50B1A1F5118}</c15:txfldGUID>
+                      <c15:txfldGUID>{0260C45F-5087-694E-9E69-A0AAD2D77729}</c15:txfldGUID>
                       <c15:f>calcs!$E$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5951,7 +5960,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A27FA8F2-0A72-5447-BE6A-BB141014BF17}</c15:txfldGUID>
+                      <c15:txfldGUID>{62BFA229-C528-394E-96B4-7ED32A50F0AE}</c15:txfldGUID>
                       <c15:f>calcs!$F$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5992,7 +6001,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{F13E30F5-31B8-D445-8259-0B8528297E2F}</c15:txfldGUID>
+                      <c15:txfldGUID>{261F7046-34C7-8F4A-9063-7B5AE036A75E}</c15:txfldGUID>
                       <c15:f>calcs!$G$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6033,7 +6042,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{603B3943-225B-6045-B807-A96D91BD1CC6}</c15:txfldGUID>
+                      <c15:txfldGUID>{B1C321C2-87A8-2245-8979-5FC5C70702BD}</c15:txfldGUID>
                       <c15:f>calcs!$H$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6074,7 +6083,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{BA0FE233-ECA4-2E40-B648-F252E6AC73A0}</c15:txfldGUID>
+                      <c15:txfldGUID>{C29866C8-7FAD-9F40-AD78-A0D8D5CD3912}</c15:txfldGUID>
                       <c15:f>calcs!$I$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6115,7 +6124,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5A876014-7F54-204C-8168-40D4DE97DA6A}</c15:txfldGUID>
+                      <c15:txfldGUID>{624AD391-9A76-0A48-AE61-AD23000B1349}</c15:txfldGUID>
                       <c15:f>calcs!$J$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6156,7 +6165,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E3374738-870E-5343-ADD5-79931A98D6BF}</c15:txfldGUID>
+                      <c15:txfldGUID>{5F9FA8A0-8CB4-414F-BC15-3485E39D61C1}</c15:txfldGUID>
                       <c15:f>calcs!$K$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6197,7 +6206,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{187B6ADC-F28B-2F43-94E0-1CC28CB1F1DA}</c15:txfldGUID>
+                      <c15:txfldGUID>{9A9DD142-7C71-D84D-A402-77CB5BD34C9F}</c15:txfldGUID>
                       <c15:f>calcs!$L$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6238,7 +6247,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E4C406F8-74D1-034A-B627-1E05D6F7624E}</c15:txfldGUID>
+                      <c15:txfldGUID>{6469D879-E6E3-C148-862C-A35FF505935A}</c15:txfldGUID>
                       <c15:f>calcs!$M$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6279,7 +6288,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A2D6C22D-E39A-7C40-BC67-65987D8EBB77}</c15:txfldGUID>
+                      <c15:txfldGUID>{A72F390F-37AC-FA4B-920A-5B0471E3C5FA}</c15:txfldGUID>
                       <c15:f>calcs!$N$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6320,7 +6329,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{635B2A4D-BD68-A44E-8993-11BD9835F057}</c15:txfldGUID>
+                      <c15:txfldGUID>{CEFF6C12-EB3C-D949-89CD-41E64B71B241}</c15:txfldGUID>
                       <c15:f>calcs!$O$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6361,7 +6370,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E9252F6A-793A-0C42-9558-D8CEE939A442}</c15:txfldGUID>
+                      <c15:txfldGUID>{750BB0A3-D461-E94A-A93D-AAFE8116998D}</c15:txfldGUID>
                       <c15:f>calcs!$P$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6402,7 +6411,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{BA2A2829-3815-E047-A55D-6BD27C36364E}</c15:txfldGUID>
+                      <c15:txfldGUID>{A1F82969-065A-314A-942B-623317056305}</c15:txfldGUID>
                       <c15:f>calcs!$Q$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6443,7 +6452,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{75A04F56-7AE0-F743-AC4C-405063C04D92}</c15:txfldGUID>
+                      <c15:txfldGUID>{4106E0E9-C5F8-0D4C-8428-D95F85E4BC4E}</c15:txfldGUID>
                       <c15:f>calcs!$R$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6484,7 +6493,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{9632595E-2FC2-284C-8706-0B9A940AA4C7}</c15:txfldGUID>
+                      <c15:txfldGUID>{7B48341B-A226-1B47-B1B2-B2E5E4983953}</c15:txfldGUID>
                       <c15:f>calcs!$S$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6525,7 +6534,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{F72BA5A7-9729-1F4D-86C8-AAF69898FD54}</c15:txfldGUID>
+                      <c15:txfldGUID>{F22E6E27-8CFF-6F40-B5E3-7DC882F94B66}</c15:txfldGUID>
                       <c15:f>calcs!$T$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6566,7 +6575,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{24BABEA8-34ED-C141-A389-45D38435F321}</c15:txfldGUID>
+                      <c15:txfldGUID>{CF90E484-E0D8-9A4C-A2FD-EAE309BFFB16}</c15:txfldGUID>
                       <c15:f>calcs!$U$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6607,7 +6616,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D4F48E13-B552-9E4F-A5E9-974A29D514B9}</c15:txfldGUID>
+                      <c15:txfldGUID>{E9D2E272-4E4D-9546-A407-9D8040C103D3}</c15:txfldGUID>
                       <c15:f>calcs!$V$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6648,7 +6657,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7C2EF2C1-CA49-9444-AE34-98EBB9693074}</c15:txfldGUID>
+                      <c15:txfldGUID>{AA34DB57-BC33-E249-88D5-B52DD42A11FA}</c15:txfldGUID>
                       <c15:f>calcs!$W$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6689,7 +6698,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E32F33AE-415C-714C-864F-D0040AF43639}</c15:txfldGUID>
+                      <c15:txfldGUID>{DA3AF880-01B1-6746-9F4A-B57733EFD394}</c15:txfldGUID>
                       <c15:f>calcs!$X$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6730,7 +6739,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B29E52A7-FB66-524E-ADEC-CE3B1D2D8F00}</c15:txfldGUID>
+                      <c15:txfldGUID>{B3D8A883-9806-114F-B1EE-3A88FF456800}</c15:txfldGUID>
                       <c15:f>calcs!$Y$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6771,7 +6780,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{FC96B53C-D725-3048-B8F5-5AE6CB88359D}</c15:txfldGUID>
+                      <c15:txfldGUID>{1CF204CC-33B4-FA4A-8D67-4E960D6C3DC5}</c15:txfldGUID>
                       <c15:f>calcs!$Z$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6812,7 +6821,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{8A220763-040B-1547-8510-C90E319A908E}</c15:txfldGUID>
+                      <c15:txfldGUID>{D17C4173-52AF-684C-A901-468BF1B46196}</c15:txfldGUID>
                       <c15:f>calcs!$AA$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6853,7 +6862,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E5AEA423-888C-304A-80C9-75EDBEAB1D4D}</c15:txfldGUID>
+                      <c15:txfldGUID>{F48EEA3D-6C85-9D4B-8456-234DE18152BB}</c15:txfldGUID>
                       <c15:f>calcs!$AB$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6894,7 +6903,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{72D4BBF4-9981-3B42-AF46-EB4E5C96C3CD}</c15:txfldGUID>
+                      <c15:txfldGUID>{8A3BDA2D-1DBB-3F4F-906A-C3AA0638419F}</c15:txfldGUID>
                       <c15:f>calcs!$AC$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6935,7 +6944,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{8FF7B985-B0D7-B047-8AB4-254FBC08FDA2}</c15:txfldGUID>
+                      <c15:txfldGUID>{1A8E378D-9E9A-694C-8385-4D3270D05101}</c15:txfldGUID>
                       <c15:f>calcs!$AD$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6976,7 +6985,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A355930F-7A7E-FB4A-9BBA-BC5EE6C9B70D}</c15:txfldGUID>
+                      <c15:txfldGUID>{749D1629-2537-7945-BCE3-0DEBAAC6E8D0}</c15:txfldGUID>
                       <c15:f>calcs!$AE$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7017,7 +7026,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5C28B451-A157-8347-A34C-34EDEC6DA0C4}</c15:txfldGUID>
+                      <c15:txfldGUID>{A8562728-B902-2E40-96B5-DCDB9B4A7734}</c15:txfldGUID>
                       <c15:f>calcs!$AF$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7058,7 +7067,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{3D1A5C04-603A-6140-A3C6-7A729D4D09F1}</c15:txfldGUID>
+                      <c15:txfldGUID>{22386526-DE06-6948-AFBF-5B0B5B220B7B}</c15:txfldGUID>
                       <c15:f>calcs!$AG$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7099,7 +7108,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E51B8E9B-5F27-F045-B4D2-C5069535AD41}</c15:txfldGUID>
+                      <c15:txfldGUID>{B855B610-4284-6B41-9554-07FEE9C5429A}</c15:txfldGUID>
                       <c15:f>calcs!$AH$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7678,8 +7687,8 @@
         <a:xfrm>
           <a:off x="363977" y="4044950"/>
           <a:ext cx="10277919" cy="228436"/>
-          <a:chOff x="306828" y="4108026"/>
-          <a:chExt cx="8729080" cy="223568"/>
+          <a:chOff x="306828" y="4108028"/>
+          <a:chExt cx="8729080" cy="223566"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -7753,7 +7762,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="306828" y="4108026"/>
+                <a:off x="306828" y="4108028"/>
                 <a:ext cx="8729080" cy="163196"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -8037,8 +8046,8 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="35" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8137,7 +8146,7 @@
         <v>-5</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="5">
         <v>44335</v>
@@ -8152,7 +8161,7 @@
         <v>-4</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="5">
         <v>44341</v>
@@ -8166,17 +8175,17 @@
         <f>ROW(B9)-calcs!$D$5</f>
         <v>-3</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="C9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1">
         <v>44343</v>
       </c>
-      <c r="E9" s="5">
-        <v>44345</v>
+      <c r="E9" s="1">
+        <v>44343</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -8184,8 +8193,18 @@
         <f>ROW(B10)-calcs!$D$5</f>
         <v>-2</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="5">
+        <v>44343</v>
+      </c>
+      <c r="E10" s="5">
+        <v>44345</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11">
@@ -8258,7 +8277,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="D6:E9" calculatedColumn="1"/>
+    <ignoredError sqref="D6:E8" calculatedColumn="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -8366,7 +8385,7 @@
       </c>
       <c r="D9">
         <f>SUMPRODUCT( ((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)) )</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9" t="e">
         <f>NA()</f>
@@ -8385,7 +8404,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D11">
         <f>D10-MIN(D10,D9)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" t="e">
         <f>NA()</f>
@@ -8450,9 +8469,9 @@
         <f t="array" ref="E18">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E17)*((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
         <v>-4</v>
       </c>
-      <c r="F18" t="e">
+      <c r="F18">
         <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.2">
@@ -8462,17 +8481,17 @@
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="0"/>
-        <v>-7</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="E20" t="e">
+      <c r="E20">
         <f t="array" ref="E20">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E19)*((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
-        <v>#N/A</v>
+        <v>-2</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="0"/>
-        <v>-6</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.2">
@@ -8482,7 +8501,7 @@
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="0"/>
-        <v>-5</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.2">
@@ -8492,7 +8511,7 @@
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="0"/>
-        <v>-4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.2">
@@ -8502,7 +8521,7 @@
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="16" x14ac:dyDescent="0.2">
@@ -9099,7 +9118,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35" ht="16" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="3"/>
         <v>8.3000000000000007</v>
@@ -9107,85 +9126,85 @@
       <c r="B35">
         <v>4</v>
       </c>
-      <c r="C35" t="e">
+      <c r="C35">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D35" t="e">
+        <v>-7</v>
+      </c>
+      <c r="D35" t="str">
         <f ca="1">INDEX(Activities[ACTIVITY],MATCH($C35,Activities[Id],0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E35" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F35" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G35" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H35" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I35" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J35" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K35" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L35" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M35" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N35" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O35" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P35" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q35" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R35" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S35" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T35" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U35" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V35" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
+        <v>Project Start</v>
+      </c>
+      <c r="E35">
+        <f ca="1">GridCalc</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F35">
+        <f ca="1">GridCalc</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G35">
+        <f ca="1">GridCalc</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H35">
+        <f ca="1">GridCalc</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I35">
+        <f ca="1">GridCalc</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J35">
+        <f ca="1">GridCalc</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K35">
+        <f ca="1">GridCalc</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="L35">
+        <f ca="1">GridCalc</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="M35">
+        <f ca="1">GridCalc</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="N35">
+        <f ca="1">GridCalc</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="O35">
+        <f ca="1">GridCalc</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="P35">
+        <f ca="1">GridCalc</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="Q35">
+        <f ca="1">GridCalc</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="R35">
+        <f ca="1">GridCalc</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="S35">
+        <f ca="1">GridCalc</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="T35">
+        <f ca="1">GridCalc</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="U35">
+        <f ca="1">GridCalc</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="V35">
+        <f ca="1">GridCalc</f>
+        <v>8.3000000000000007</v>
       </c>
       <c r="W35" t="e">
         <f ca="1">GridCalc</f>
@@ -9250,11 +9269,11 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="2"/>
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="D36" t="str">
         <f ca="1">INDEX(Activities[ACTIVITY],MATCH($C36,Activities[Id],0))</f>
-        <v>Project Start</v>
+        <v>Clean &amp; Extract</v>
       </c>
       <c r="E36">
         <f ca="1">GridCalc</f>
@@ -9276,57 +9295,57 @@
         <f ca="1">GridCalc</f>
         <v>7.3000000000000007</v>
       </c>
-      <c r="J36">
-        <f ca="1">GridCalc</f>
-        <v>7.3000000000000007</v>
-      </c>
-      <c r="K36">
-        <f ca="1">GridCalc</f>
-        <v>7.3000000000000007</v>
-      </c>
-      <c r="L36">
-        <f ca="1">GridCalc</f>
-        <v>7.3000000000000007</v>
-      </c>
-      <c r="M36">
-        <f ca="1">GridCalc</f>
-        <v>7.3000000000000007</v>
-      </c>
-      <c r="N36">
-        <f ca="1">GridCalc</f>
-        <v>7.3000000000000007</v>
-      </c>
-      <c r="O36">
-        <f ca="1">GridCalc</f>
-        <v>7.3000000000000007</v>
-      </c>
-      <c r="P36">
-        <f ca="1">GridCalc</f>
-        <v>7.3000000000000007</v>
-      </c>
-      <c r="Q36">
-        <f ca="1">GridCalc</f>
-        <v>7.3000000000000007</v>
-      </c>
-      <c r="R36">
-        <f ca="1">GridCalc</f>
-        <v>7.3000000000000007</v>
-      </c>
-      <c r="S36">
-        <f ca="1">GridCalc</f>
-        <v>7.3000000000000007</v>
-      </c>
-      <c r="T36">
-        <f ca="1">GridCalc</f>
-        <v>7.3000000000000007</v>
-      </c>
-      <c r="U36">
-        <f ca="1">GridCalc</f>
-        <v>7.3000000000000007</v>
-      </c>
-      <c r="V36">
-        <f ca="1">GridCalc</f>
-        <v>7.3000000000000007</v>
+      <c r="J36" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K36" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L36" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M36" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N36" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O36" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P36" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q36" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R36" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S36" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T36" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U36" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V36" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
       </c>
       <c r="W36" t="e">
         <f ca="1">GridCalc</f>
@@ -9381,7 +9400,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:35" ht="32" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="3"/>
         <v>6.3000000000000007</v>
@@ -9391,55 +9410,55 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="2"/>
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="D37" t="str">
         <f ca="1">INDEX(Activities[ACTIVITY],MATCH($C37,Activities[Id],0))</f>
-        <v>Clean &amp; Extract</v>
-      </c>
-      <c r="E37">
+        <v>Vizulaization / HTML / JS</v>
+      </c>
+      <c r="E37" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F37" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G37" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H37" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I37">
         <f ca="1">GridCalc</f>
         <v>6.3000000000000007</v>
       </c>
-      <c r="F37">
+      <c r="J37">
         <f ca="1">GridCalc</f>
         <v>6.3000000000000007</v>
       </c>
-      <c r="G37">
+      <c r="K37">
         <f ca="1">GridCalc</f>
         <v>6.3000000000000007</v>
       </c>
-      <c r="H37">
+      <c r="L37">
         <f ca="1">GridCalc</f>
         <v>6.3000000000000007</v>
       </c>
-      <c r="I37">
+      <c r="M37">
         <f ca="1">GridCalc</f>
         <v>6.3000000000000007</v>
       </c>
-      <c r="J37" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K37" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L37" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M37" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N37" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O37" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
+      <c r="N37">
+        <f ca="1">GridCalc</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="O37">
+        <f ca="1">GridCalc</f>
+        <v>6.3000000000000007</v>
       </c>
       <c r="P37" t="e">
         <f ca="1">GridCalc</f>
@@ -9522,7 +9541,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="1:35" ht="32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:35" ht="16" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="3"/>
         <v>5.3000000000000007</v>
@@ -9532,11 +9551,11 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="2"/>
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="D38" t="str">
         <f ca="1">INDEX(Activities[ACTIVITY],MATCH($C38,Activities[Id],0))</f>
-        <v>Vizulaization / HTML / JS</v>
+        <v>Finalize HTML / CSS</v>
       </c>
       <c r="E38" t="e">
         <f ca="1">GridCalc</f>
@@ -9554,41 +9573,41 @@
         <f ca="1">GridCalc</f>
         <v>#N/A</v>
       </c>
-      <c r="I38">
+      <c r="I38" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J38" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K38" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L38" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M38" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N38" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O38">
         <f ca="1">GridCalc</f>
         <v>5.3000000000000007</v>
       </c>
-      <c r="J38">
+      <c r="P38">
         <f ca="1">GridCalc</f>
         <v>5.3000000000000007</v>
       </c>
-      <c r="K38">
+      <c r="Q38">
         <f ca="1">GridCalc</f>
         <v>5.3000000000000007</v>
-      </c>
-      <c r="L38">
-        <f ca="1">GridCalc</f>
-        <v>5.3000000000000007</v>
-      </c>
-      <c r="M38">
-        <f ca="1">GridCalc</f>
-        <v>5.3000000000000007</v>
-      </c>
-      <c r="N38">
-        <f ca="1">GridCalc</f>
-        <v>5.3000000000000007</v>
-      </c>
-      <c r="O38">
-        <f ca="1">GridCalc</f>
-        <v>5.3000000000000007</v>
-      </c>
-      <c r="P38" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q38" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
       </c>
       <c r="R38" t="e">
         <f ca="1">GridCalc</f>
@@ -9673,11 +9692,11 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="2"/>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="D39" t="str">
         <f ca="1">INDEX(Activities[ACTIVITY],MATCH($C39,Activities[Id],0))</f>
-        <v>Finalize HTML / CSS</v>
+        <v>SQL / Mongo DB</v>
       </c>
       <c r="E39" t="e">
         <f ca="1">GridCalc</f>
@@ -9719,13 +9738,13 @@
         <f ca="1">GridCalc</f>
         <v>#N/A</v>
       </c>
-      <c r="O39">
-        <f ca="1">GridCalc</f>
-        <v>4.3000000000000007</v>
-      </c>
-      <c r="P39">
-        <f ca="1">GridCalc</f>
-        <v>4.3000000000000007</v>
+      <c r="O39" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P39" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
       </c>
       <c r="Q39">
         <f ca="1">GridCalc</f>
@@ -9814,11 +9833,11 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="2"/>
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D40" t="str">
         <f ca="1">INDEX(Activities[ACTIVITY],MATCH($C40,Activities[Id],0))</f>
-        <v>Presentaion</v>
+        <v>Presentation</v>
       </c>
       <c r="E40" t="e">
         <f ca="1">GridCalc</f>
@@ -10457,14 +10476,14 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="C47" t="e">
+    <row r="47" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="C47">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D47" t="e">
+        <v>-7</v>
+      </c>
+      <c r="D47" t="str">
         <f ca="1">UPPER(INDEX(Activities[ACTIVITY],MATCH($C47,Activities[Id],0)))</f>
-        <v>#N/A</v>
+        <v>PROJECT START</v>
       </c>
       <c r="E47" t="e">
         <f t="shared" ref="E47:AH47" ca="1" si="9">IF(ISERROR(F35),E35,NA())</f>
@@ -10534,9 +10553,9 @@
         <f t="shared" ca="1" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="V47" t="e">
+      <c r="V47">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="W47" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -10590,11 +10609,11 @@
     <row r="48" spans="1:35" ht="16" x14ac:dyDescent="0.2">
       <c r="C48">
         <f t="shared" ca="1" si="6"/>
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="D48" t="str">
         <f ca="1">UPPER(INDEX(Activities[ACTIVITY],MATCH($C48,Activities[Id],0)))</f>
-        <v>PROJECT START</v>
+        <v>CLEAN &amp; EXTRACT</v>
       </c>
       <c r="E48" t="e">
         <f t="shared" ref="E48:AH48" ca="1" si="10">IF(ISERROR(F36),E36,NA())</f>
@@ -10612,9 +10631,9 @@
         <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="I48" t="e">
+      <c r="I48">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
+        <v>7.3000000000000007</v>
       </c>
       <c r="J48" t="e">
         <f t="shared" ca="1" si="10"/>
@@ -10664,9 +10683,9 @@
         <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="V48">
+      <c r="V48" t="e">
         <f t="shared" ca="1" si="10"/>
-        <v>7.3000000000000007</v>
+        <v>#N/A</v>
       </c>
       <c r="W48" t="e">
         <f t="shared" ca="1" si="10"/>
@@ -10717,14 +10736,14 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="3:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:34" ht="32" x14ac:dyDescent="0.2">
       <c r="C49">
         <f t="shared" ca="1" si="6"/>
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="D49" t="str">
         <f ca="1">UPPER(INDEX(Activities[ACTIVITY],MATCH($C49,Activities[Id],0)))</f>
-        <v>CLEAN &amp; EXTRACT</v>
+        <v>VIZULAIZATION / HTML / JS</v>
       </c>
       <c r="E49" t="e">
         <f t="shared" ref="E49:AH49" ca="1" si="11">IF(ISERROR(F37),E37,NA())</f>
@@ -10742,34 +10761,34 @@
         <f t="shared" ca="1" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="I49">
+      <c r="I49" t="e">
+        <f t="shared" ca="1" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J49" t="e">
+        <f t="shared" ca="1" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K49" t="e">
+        <f t="shared" ca="1" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L49" t="e">
+        <f t="shared" ca="1" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M49" t="e">
+        <f t="shared" ca="1" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N49" t="e">
+        <f t="shared" ca="1" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O49">
         <f t="shared" ca="1" si="11"/>
         <v>6.3000000000000007</v>
       </c>
-      <c r="J49" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K49" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L49" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M49" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N49" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O49" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
       <c r="P49" t="e">
         <f t="shared" ca="1" si="11"/>
         <v>#N/A</v>
@@ -10847,14 +10866,14 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="3:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:34" ht="16" x14ac:dyDescent="0.2">
       <c r="C50">
         <f t="shared" ca="1" si="6"/>
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="D50" t="str">
         <f ca="1">UPPER(INDEX(Activities[ACTIVITY],MATCH($C50,Activities[Id],0)))</f>
-        <v>VIZULAIZATION / HTML / JS</v>
+        <v>FINALIZE HTML / CSS</v>
       </c>
       <c r="E50" t="e">
         <f t="shared" ref="E50:AH50" ca="1" si="12">IF(ISERROR(F38),E38,NA())</f>
@@ -10896,17 +10915,17 @@
         <f t="shared" ca="1" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="O50">
+      <c r="O50" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P50" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q50">
         <f t="shared" ca="1" si="12"/>
         <v>5.3000000000000007</v>
-      </c>
-      <c r="P50" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q50" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
       </c>
       <c r="R50" t="e">
         <f t="shared" ca="1" si="12"/>
@@ -10980,11 +10999,11 @@
     <row r="51" spans="3:34" ht="16" x14ac:dyDescent="0.2">
       <c r="C51">
         <f t="shared" ca="1" si="6"/>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="D51" t="str">
         <f ca="1">UPPER(INDEX(Activities[ACTIVITY],MATCH($C51,Activities[Id],0)))</f>
-        <v>FINALIZE HTML / CSS</v>
+        <v>SQL / MONGO DB</v>
       </c>
       <c r="E51" t="e">
         <f t="shared" ref="E51:AH51" ca="1" si="13">IF(ISERROR(F39),E39,NA())</f>
@@ -11110,11 +11129,11 @@
     <row r="52" spans="3:34" ht="16" x14ac:dyDescent="0.2">
       <c r="C52">
         <f t="shared" ca="1" si="6"/>
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D52" t="str">
         <f ca="1">UPPER(INDEX(Activities[ACTIVITY],MATCH($C52,Activities[Id],0)))</f>
-        <v>PRESENTAION</v>
+        <v>PRESENTATION</v>
       </c>
       <c r="E52" t="e">
         <f t="shared" ref="E52:AH52" ca="1" si="14">IF(ISERROR(F40),E40,NA())</f>
@@ -12742,23 +12761,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MediaServiceKeyPoints xmlns="2f07357f-8355-4bb9-a509-1fa2595dcd31" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100265A6EA4B2E6274B903FACC670FA3E00" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7b3b011ba45c990215af3463a8a4a0bd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2f07357f-8355-4bb9-a509-1fa2595dcd31" xmlns:ns4="c3b2e6cd-0d38-42df-824d-db7755478d35" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d54624823127d7b4341590f0b02e9250" ns3:_="" ns4:_="">
     <xsd:import namespace="2f07357f-8355-4bb9-a509-1fa2595dcd31"/>
@@ -12943,32 +12945,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED11D93F-21D3-4821-9768-A0F99C41A8EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2f07357f-8355-4bb9-a509-1fa2595dcd31"/>
-    <ds:schemaRef ds:uri="c3b2e6cd-0d38-42df-824d-db7755478d35"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{983CAFE3-5C64-4732-BD1D-A9D00643597D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MediaServiceKeyPoints xmlns="2f07357f-8355-4bb9-a509-1fa2595dcd31" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86550A6D-7191-4686-B26A-66FF2EEE2CA6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12985,4 +12979,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{983CAFE3-5C64-4732-BD1D-A9D00643597D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED11D93F-21D3-4821-9768-A0F99C41A8EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2f07357f-8355-4bb9-a509-1fa2595dcd31"/>
+    <ds:schemaRef ds:uri="c3b2e6cd-0d38-42df-824d-db7755478d35"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Project Plans/Project Schedule.xlsx
+++ b/Project Plans/Project Schedule.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4036BC2-D1EB-3543-8869-835A8511B141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D0E78C-49B3-5440-BF3D-6EBA25F355D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36040" yWindow="3900" windowWidth="23260" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1940" yWindow="2620" windowWidth="23260" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Timeline" sheetId="1" r:id="rId1"/>
@@ -344,14 +344,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -3753,31 +3753,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>#N/A</c:v>
@@ -4537,7 +4537,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{45F570C5-1344-0A4C-A9E2-10B9DD0D13A0}</c15:txfldGUID>
+                      <c15:txfldGUID>{7F7030F9-FD69-7344-8323-3800B6E8630B}</c15:txfldGUID>
                       <c15:f>calcs!$E$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4578,7 +4578,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{000411EC-0153-DC45-B9A3-AE9962099800}</c15:txfldGUID>
+                      <c15:txfldGUID>{40764657-6F61-E347-8560-5F82DB88F8A0}</c15:txfldGUID>
                       <c15:f>calcs!$F$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4619,7 +4619,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{2258566F-6FAC-914E-90D6-C70E21664139}</c15:txfldGUID>
+                      <c15:txfldGUID>{4B7E7271-F0CF-D84D-8CB3-3D107543ED31}</c15:txfldGUID>
                       <c15:f>calcs!$G$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4660,7 +4660,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{2796E1B2-9F9D-AA4C-AD35-633A71953E01}</c15:txfldGUID>
+                      <c15:txfldGUID>{4566C30C-93D5-E149-BA34-0DF6E0190475}</c15:txfldGUID>
                       <c15:f>calcs!$H$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4701,7 +4701,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{CC5B5E46-969D-6A4B-B180-3FDAFAA2F7D3}</c15:txfldGUID>
+                      <c15:txfldGUID>{FA4A2C6E-068E-7645-8CA5-4E17182DBEEB}</c15:txfldGUID>
                       <c15:f>calcs!$I$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4742,7 +4742,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{BC6D458D-BAD9-354F-B5C0-B06D49596F11}</c15:txfldGUID>
+                      <c15:txfldGUID>{1A0CE308-1C41-284E-B684-8070F9F987A5}</c15:txfldGUID>
                       <c15:f>calcs!$J$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4783,7 +4783,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{979854C7-7980-964C-B8AB-D97467906D5F}</c15:txfldGUID>
+                      <c15:txfldGUID>{BE780DCB-A2AC-B94A-88BC-E5B29F43CF61}</c15:txfldGUID>
                       <c15:f>calcs!$K$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4824,7 +4824,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{84D2D037-8B48-624C-8215-A7D4485B3DEB}</c15:txfldGUID>
+                      <c15:txfldGUID>{68CD8286-BCB0-3A4E-9C26-4A5C3FDCC788}</c15:txfldGUID>
                       <c15:f>calcs!$L$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4865,7 +4865,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7FF4B0E7-65ED-EC46-895A-8DC295ACC3E5}</c15:txfldGUID>
+                      <c15:txfldGUID>{1DDE45FC-CE26-6F48-A078-56292D86D3C8}</c15:txfldGUID>
                       <c15:f>calcs!$M$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4906,7 +4906,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{8F7D73B5-22E2-D74E-9BB9-DFDD274BE98B}</c15:txfldGUID>
+                      <c15:txfldGUID>{C84C5EA6-8027-834D-959E-38EEE6BE407B}</c15:txfldGUID>
                       <c15:f>calcs!$N$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4947,7 +4947,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{992F07E8-005C-2A49-BE9D-E61FCE571509}</c15:txfldGUID>
+                      <c15:txfldGUID>{5D949CF8-6911-6F4D-8945-1FB7555D36B4}</c15:txfldGUID>
                       <c15:f>calcs!$O$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4988,7 +4988,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{EC32EC9D-453C-BD42-A6AA-266101600F14}</c15:txfldGUID>
+                      <c15:txfldGUID>{0860081B-B89B-024D-96EB-C3CC59E62C54}</c15:txfldGUID>
                       <c15:f>calcs!$P$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5029,7 +5029,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{91387DC2-2306-B74E-AC62-C910A4100597}</c15:txfldGUID>
+                      <c15:txfldGUID>{42F40720-08D5-DB4D-9572-404927FD6EAA}</c15:txfldGUID>
                       <c15:f>calcs!$Q$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5070,7 +5070,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{599BAAA9-8A79-014D-B0E9-2DF83E5F7192}</c15:txfldGUID>
+                      <c15:txfldGUID>{6EC5C020-1AED-154B-8FB7-AB502CC0D09A}</c15:txfldGUID>
                       <c15:f>calcs!$R$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5111,7 +5111,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{EF6FAE54-59C2-2344-8721-0CDF35D2ABCF}</c15:txfldGUID>
+                      <c15:txfldGUID>{6620251A-EACA-9F4E-9EE4-42EBC90F729B}</c15:txfldGUID>
                       <c15:f>calcs!$S$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5152,7 +5152,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{19C8F9E9-61E4-884F-ADD5-BA7A0090504F}</c15:txfldGUID>
+                      <c15:txfldGUID>{5E00238A-25AE-FB42-8E30-478274F56CBB}</c15:txfldGUID>
                       <c15:f>calcs!$T$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5193,7 +5193,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{F6010815-6512-4D4C-812B-50862326DFA8}</c15:txfldGUID>
+                      <c15:txfldGUID>{58664721-E6FA-284E-B364-CCF97E120D11}</c15:txfldGUID>
                       <c15:f>calcs!$U$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5234,7 +5234,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C38285A8-7F60-9C48-A7D6-B09A0BC77624}</c15:txfldGUID>
+                      <c15:txfldGUID>{7C1D72AA-4007-BA48-B6B4-3C0E8D78E322}</c15:txfldGUID>
                       <c15:f>calcs!$V$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5275,7 +5275,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{80560478-B97C-F842-9237-F60022B7B2F9}</c15:txfldGUID>
+                      <c15:txfldGUID>{6B66E6B1-4E35-034D-AC44-50704E138336}</c15:txfldGUID>
                       <c15:f>calcs!$W$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5316,7 +5316,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B9D8FBCD-B359-0D48-9803-0042EC67D6A0}</c15:txfldGUID>
+                      <c15:txfldGUID>{56592F67-B13C-2B46-9396-3AD3A42F41FD}</c15:txfldGUID>
                       <c15:f>calcs!$X$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5357,7 +5357,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{277A2750-D69A-F24B-B922-F26C18A161AB}</c15:txfldGUID>
+                      <c15:txfldGUID>{DFF1261A-ABC3-9347-947C-B7E981DE84F8}</c15:txfldGUID>
                       <c15:f>calcs!$Y$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5398,7 +5398,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{BA48BF20-292A-A244-A024-366549EBEB60}</c15:txfldGUID>
+                      <c15:txfldGUID>{E8E9F422-589D-3443-BE63-80E125888673}</c15:txfldGUID>
                       <c15:f>calcs!$Z$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5439,7 +5439,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7979204C-B483-F44C-A88F-06F07A6C594B}</c15:txfldGUID>
+                      <c15:txfldGUID>{DBC1766A-0C8B-5742-94A6-9A0D3C342C39}</c15:txfldGUID>
                       <c15:f>calcs!$AA$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5480,7 +5480,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{02BA25DD-F23E-B744-89D3-0828AD44D102}</c15:txfldGUID>
+                      <c15:txfldGUID>{3F07CFEB-A46D-954F-A032-51A89F00DEF4}</c15:txfldGUID>
                       <c15:f>calcs!$AB$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5521,7 +5521,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4F3886C3-4D0A-0B4F-A2F7-D4611E2F9DE9}</c15:txfldGUID>
+                      <c15:txfldGUID>{ADB43BA6-79C6-5445-B2E5-DEC9DEB3593D}</c15:txfldGUID>
                       <c15:f>calcs!$AC$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5562,7 +5562,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{1410E862-83B3-E24A-B57C-A60F9B416E39}</c15:txfldGUID>
+                      <c15:txfldGUID>{34F0A052-0D23-F145-A2E0-FFA6CEBBCB76}</c15:txfldGUID>
                       <c15:f>calcs!$AD$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5603,7 +5603,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{785A6E9C-C5CA-A041-A4A0-BE11288EED4E}</c15:txfldGUID>
+                      <c15:txfldGUID>{04F019C8-2547-2C4E-81AA-8CEE17FE7B15}</c15:txfldGUID>
                       <c15:f>calcs!$AE$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5644,7 +5644,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{DCB686D5-C89E-9346-8619-92CB550F9B92}</c15:txfldGUID>
+                      <c15:txfldGUID>{FFE61EAD-19BB-7547-86D8-19235A16E152}</c15:txfldGUID>
                       <c15:f>calcs!$AF$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5685,7 +5685,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{11ADE2C5-4614-4446-9ABF-EB06A014823F}</c15:txfldGUID>
+                      <c15:txfldGUID>{8A1543C7-F328-5B40-80EC-3BFCFB5A92DD}</c15:txfldGUID>
                       <c15:f>calcs!$AG$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5726,7 +5726,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7A7C2B40-E3D4-144F-A6D3-73D43193FB1B}</c15:txfldGUID>
+                      <c15:txfldGUID>{A5FE2BAB-CDA9-FA48-8EF1-F1D45DA9880C}</c15:txfldGUID>
                       <c15:f>calcs!$AH$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5919,7 +5919,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{0260C45F-5087-694E-9E69-A0AAD2D77729}</c15:txfldGUID>
+                      <c15:txfldGUID>{F15F7EAF-3CC1-D441-9727-6E80F897CEA4}</c15:txfldGUID>
                       <c15:f>calcs!$E$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5960,7 +5960,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{62BFA229-C528-394E-96B4-7ED32A50F0AE}</c15:txfldGUID>
+                      <c15:txfldGUID>{6F202288-84F3-BA42-AE9F-63DD630BFED2}</c15:txfldGUID>
                       <c15:f>calcs!$F$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6001,7 +6001,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{261F7046-34C7-8F4A-9063-7B5AE036A75E}</c15:txfldGUID>
+                      <c15:txfldGUID>{2A457324-1677-9B4B-95D8-B2CBB23D1E48}</c15:txfldGUID>
                       <c15:f>calcs!$G$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6042,7 +6042,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B1C321C2-87A8-2245-8979-5FC5C70702BD}</c15:txfldGUID>
+                      <c15:txfldGUID>{C212E298-F1CC-C549-861F-3A507F3DA8B3}</c15:txfldGUID>
                       <c15:f>calcs!$H$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6083,7 +6083,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C29866C8-7FAD-9F40-AD78-A0D8D5CD3912}</c15:txfldGUID>
+                      <c15:txfldGUID>{5FF1198B-1283-2243-AEB7-33CA2828CED9}</c15:txfldGUID>
                       <c15:f>calcs!$I$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6124,7 +6124,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{624AD391-9A76-0A48-AE61-AD23000B1349}</c15:txfldGUID>
+                      <c15:txfldGUID>{0E364DD8-F0B4-334E-BE17-90F92502D49C}</c15:txfldGUID>
                       <c15:f>calcs!$J$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6165,7 +6165,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5F9FA8A0-8CB4-414F-BC15-3485E39D61C1}</c15:txfldGUID>
+                      <c15:txfldGUID>{CE3F1CFC-0111-E74A-90EA-9D8CB98EE4CD}</c15:txfldGUID>
                       <c15:f>calcs!$K$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6206,7 +6206,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{9A9DD142-7C71-D84D-A402-77CB5BD34C9F}</c15:txfldGUID>
+                      <c15:txfldGUID>{0108A4DD-9094-2148-B15A-41B2FCE3FBDE}</c15:txfldGUID>
                       <c15:f>calcs!$L$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6247,7 +6247,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{6469D879-E6E3-C148-862C-A35FF505935A}</c15:txfldGUID>
+                      <c15:txfldGUID>{B7A8374C-47C3-7941-8979-45A2B0A280E0}</c15:txfldGUID>
                       <c15:f>calcs!$M$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6288,7 +6288,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A72F390F-37AC-FA4B-920A-5B0471E3C5FA}</c15:txfldGUID>
+                      <c15:txfldGUID>{00A52385-9948-7C49-9265-13FF97961370}</c15:txfldGUID>
                       <c15:f>calcs!$N$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6329,7 +6329,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{CEFF6C12-EB3C-D949-89CD-41E64B71B241}</c15:txfldGUID>
+                      <c15:txfldGUID>{9EC4FB7B-DFEF-5F44-82FC-2B02AD249D46}</c15:txfldGUID>
                       <c15:f>calcs!$O$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6370,7 +6370,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{750BB0A3-D461-E94A-A93D-AAFE8116998D}</c15:txfldGUID>
+                      <c15:txfldGUID>{889FBDFD-8D48-1241-AA85-6C17D71ECADE}</c15:txfldGUID>
                       <c15:f>calcs!$P$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6411,7 +6411,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A1F82969-065A-314A-942B-623317056305}</c15:txfldGUID>
+                      <c15:txfldGUID>{08EAC8E8-0BD7-F548-BA3C-8EC74713E1FC}</c15:txfldGUID>
                       <c15:f>calcs!$Q$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6452,7 +6452,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4106E0E9-C5F8-0D4C-8428-D95F85E4BC4E}</c15:txfldGUID>
+                      <c15:txfldGUID>{0C229C9D-523D-754A-B4A3-1833ABF1D6F6}</c15:txfldGUID>
                       <c15:f>calcs!$R$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6493,7 +6493,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7B48341B-A226-1B47-B1B2-B2E5E4983953}</c15:txfldGUID>
+                      <c15:txfldGUID>{15C27E45-175F-E144-B9AB-E6CE5CB099F4}</c15:txfldGUID>
                       <c15:f>calcs!$S$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6534,7 +6534,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{F22E6E27-8CFF-6F40-B5E3-7DC882F94B66}</c15:txfldGUID>
+                      <c15:txfldGUID>{D5313A83-4B49-0547-BDD2-A1927BBDBA3B}</c15:txfldGUID>
                       <c15:f>calcs!$T$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6575,7 +6575,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{CF90E484-E0D8-9A4C-A2FD-EAE309BFFB16}</c15:txfldGUID>
+                      <c15:txfldGUID>{F367810B-6393-5D40-954B-004328CE65D6}</c15:txfldGUID>
                       <c15:f>calcs!$U$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6616,7 +6616,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E9D2E272-4E4D-9546-A407-9D8040C103D3}</c15:txfldGUID>
+                      <c15:txfldGUID>{0242B916-4D30-C14E-9FF1-66B5A657D96B}</c15:txfldGUID>
                       <c15:f>calcs!$V$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6657,7 +6657,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{AA34DB57-BC33-E249-88D5-B52DD42A11FA}</c15:txfldGUID>
+                      <c15:txfldGUID>{998428AC-66D4-C041-BFA1-AA37144D47A1}</c15:txfldGUID>
                       <c15:f>calcs!$W$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6698,7 +6698,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{DA3AF880-01B1-6746-9F4A-B57733EFD394}</c15:txfldGUID>
+                      <c15:txfldGUID>{FEBB8406-4159-214D-A8AB-22808DDBE78F}</c15:txfldGUID>
                       <c15:f>calcs!$X$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6739,7 +6739,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B3D8A883-9806-114F-B1EE-3A88FF456800}</c15:txfldGUID>
+                      <c15:txfldGUID>{F2C1DE08-FEAC-BF4C-9B10-5DC3CBF1F476}</c15:txfldGUID>
                       <c15:f>calcs!$Y$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6780,7 +6780,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{1CF204CC-33B4-FA4A-8D67-4E960D6C3DC5}</c15:txfldGUID>
+                      <c15:txfldGUID>{375F3748-448A-7A48-A8B9-6169612751F8}</c15:txfldGUID>
                       <c15:f>calcs!$Z$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6821,7 +6821,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D17C4173-52AF-684C-A901-468BF1B46196}</c15:txfldGUID>
+                      <c15:txfldGUID>{21AFBFD8-4D15-E74C-8702-9B55A4693C82}</c15:txfldGUID>
                       <c15:f>calcs!$AA$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6862,7 +6862,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{F48EEA3D-6C85-9D4B-8456-234DE18152BB}</c15:txfldGUID>
+                      <c15:txfldGUID>{463D7638-FC3F-1448-A9E9-D861AEC50D2C}</c15:txfldGUID>
                       <c15:f>calcs!$AB$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6903,7 +6903,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{8A3BDA2D-1DBB-3F4F-906A-C3AA0638419F}</c15:txfldGUID>
+                      <c15:txfldGUID>{271EEA67-436C-294A-A803-D4BB5E78F6D7}</c15:txfldGUID>
                       <c15:f>calcs!$AC$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6944,7 +6944,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{1A8E378D-9E9A-694C-8385-4D3270D05101}</c15:txfldGUID>
+                      <c15:txfldGUID>{F7342E77-7439-6D4B-A996-98644679C499}</c15:txfldGUID>
                       <c15:f>calcs!$AD$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6985,7 +6985,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{749D1629-2537-7945-BCE3-0DEBAAC6E8D0}</c15:txfldGUID>
+                      <c15:txfldGUID>{419CCC8B-BF93-4E45-B33E-E3CCC9F4319B}</c15:txfldGUID>
                       <c15:f>calcs!$AE$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7026,7 +7026,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A8562728-B902-2E40-96B5-DCDB9B4A7734}</c15:txfldGUID>
+                      <c15:txfldGUID>{F4AC29E1-0487-E641-9D47-1FAE38E9E440}</c15:txfldGUID>
                       <c15:f>calcs!$AF$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7067,7 +7067,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{22386526-DE06-6948-AFBF-5B0B5B220B7B}</c15:txfldGUID>
+                      <c15:txfldGUID>{B1E91F53-0E62-794D-A80C-75A0A512835E}</c15:txfldGUID>
                       <c15:f>calcs!$AG$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7108,7 +7108,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B855B610-4284-6B41-9554-07FEE9C5429A}</c15:txfldGUID>
+                      <c15:txfldGUID>{2628FFB3-9057-0547-98EF-AED4627348A0}</c15:txfldGUID>
                       <c15:f>calcs!$AH$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7687,8 +7687,8 @@
         <a:xfrm>
           <a:off x="363977" y="4044950"/>
           <a:ext cx="10277919" cy="228436"/>
-          <a:chOff x="306828" y="4108028"/>
-          <a:chExt cx="8729080" cy="223566"/>
+          <a:chOff x="306828" y="4108026"/>
+          <a:chExt cx="8729080" cy="223568"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -7762,7 +7762,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="306828" y="4108028"/>
+                <a:off x="306828" y="4108026"/>
                 <a:ext cx="8729080" cy="163196"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -8047,7 +8047,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="35" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8064,22 +8064,22 @@
     <row r="1" spans="1:7" s="4" customFormat="1" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" ht="316" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="8" t="s">
@@ -8175,7 +8175,7 @@
         <f>ROW(B9)-calcs!$D$5</f>
         <v>-3</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="1">
@@ -8343,7 +8343,7 @@
       </c>
       <c r="D3" s="1">
         <f ca="1">TODAY()</f>
-        <v>44331</v>
+        <v>44339</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -11382,9 +11382,9 @@
       <c r="D56" t="s">
         <v>11</v>
       </c>
-      <c r="E56">
+      <c r="E56" t="e">
         <f t="shared" ref="E56:AH56" ca="1" si="16">IF(E55=$D$3,5,NA())</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="F56" t="e">
         <f t="shared" ca="1" si="16"/>
@@ -11414,9 +11414,9 @@
         <f t="shared" ca="1" si="16"/>
         <v>#N/A</v>
       </c>
-      <c r="M56" t="e">
+      <c r="M56">
         <f t="shared" ca="1" si="16"/>
-        <v>#N/A</v>
+        <v>5</v>
       </c>
       <c r="N56" t="e">
         <f t="shared" ca="1" si="16"/>
@@ -12761,6 +12761,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MediaServiceKeyPoints xmlns="2f07357f-8355-4bb9-a509-1fa2595dcd31" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100265A6EA4B2E6274B903FACC670FA3E00" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7b3b011ba45c990215af3463a8a4a0bd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2f07357f-8355-4bb9-a509-1fa2595dcd31" xmlns:ns4="c3b2e6cd-0d38-42df-824d-db7755478d35" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d54624823127d7b4341590f0b02e9250" ns3:_="" ns4:_="">
     <xsd:import namespace="2f07357f-8355-4bb9-a509-1fa2595dcd31"/>
@@ -12945,24 +12962,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED11D93F-21D3-4821-9768-A0F99C41A8EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2f07357f-8355-4bb9-a509-1fa2595dcd31"/>
+    <ds:schemaRef ds:uri="c3b2e6cd-0d38-42df-824d-db7755478d35"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MediaServiceKeyPoints xmlns="2f07357f-8355-4bb9-a509-1fa2595dcd31" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{983CAFE3-5C64-4732-BD1D-A9D00643597D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86550A6D-7191-4686-B26A-66FF2EEE2CA6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12979,29 +13004,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{983CAFE3-5C64-4732-BD1D-A9D00643597D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED11D93F-21D3-4821-9768-A0F99C41A8EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2f07357f-8355-4bb9-a509-1fa2595dcd31"/>
-    <ds:schemaRef ds:uri="c3b2e6cd-0d38-42df-824d-db7755478d35"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>